--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="DataStructure" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -38,6 +39,21 @@
   </si>
   <si>
     <t xml:space="preserve">Welcome@01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Python Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValidCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print("hello");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello</t>
   </si>
 </sst>
 </file>
@@ -151,8 +167,8 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -191,4 +207,53 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.03"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DataStructure" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tree" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -135,7 +136,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,6 +146,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -216,8 +221,57 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.03"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -232,7 +286,7 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -243,7 +297,7 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="DataStructure" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Tree" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Login" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -55,6 +56,42 @@
   </si>
   <si>
     <t xml:space="preserve">hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please fill out this field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpy@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummyuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Username and Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC05</t>
   </si>
 </sst>
 </file>
@@ -64,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -93,6 +130,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +156,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -135,8 +180,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,15 +201,80 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -270,13 +383,13 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,4 +423,104 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="numpy@123"/>
+    <hyperlink ref="C5" r:id="rId2" display="numpy@123"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t xml:space="preserve">hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvalidCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz not defined on line 1</t>
   </si>
   <si>
     <t xml:space="preserve">username</t>
@@ -332,15 +341,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.03"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,6 +372,17 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -432,82 +452,82 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>13</v>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>15</v>
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
+      <c r="A3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1FD8F1D8-A43C-499E-8B8C-9B0B32E57413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ACE48F89-BC96-4358-BF65-7775C9D275F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="DataStructure" sheetId="2" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId2"/>
+    <sheet name="DataStructure" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G8"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -55,13 +56,85 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>EmptyValues</t>
+  </si>
+  <si>
+    <t>Please fill out this field.</t>
+  </si>
+  <si>
+    <t>UsernameValues</t>
+  </si>
+  <si>
+    <t>Prasanna1</t>
+  </si>
+  <si>
+    <t>PasswordValues</t>
+  </si>
+  <si>
+    <t>Welcome!01</t>
+  </si>
+  <si>
+    <t>NoPasswordConfirmation</t>
+  </si>
+  <si>
+    <t>MismatchPassword</t>
+  </si>
+  <si>
+    <t>Rahavi@123</t>
+  </si>
+  <si>
+    <t>Connect@1234</t>
+  </si>
+  <si>
+    <t>password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t>ValidCredentials</t>
+  </si>
+  <si>
+    <t>Numpy!1234</t>
+  </si>
+  <si>
+    <t>New Account Created</t>
+  </si>
+  <si>
+    <t>InvalidUsername</t>
+  </si>
+  <si>
+    <t>QW!!23 45 QW</t>
+  </si>
+  <si>
+    <t>Username is not valid</t>
+  </si>
+  <si>
+    <t>PwdNumericValue</t>
+  </si>
+  <si>
+    <t>Qwerty@123</t>
+  </si>
+  <si>
+    <t>Your password can’t be entirely numeric.</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password confirmation</t>
+  </si>
+  <si>
+    <t>Welcome/123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -75,6 +148,35 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -92,13 +194,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -457,6 +630,170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2155CF6-E984-4F67-9354-C278C96C8106}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8">
+        <v>123456789</v>
+      </c>
+      <c r="D9" s="8">
+        <v>123456789</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" display="Welcome@123" xr:uid="{4C4E551C-7B57-4FEB-9C83-546E0D09C865}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FC6E2BB9-AD26-4025-9B06-FE8CBC667577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8FDAB3F1-CD35-4096-A744-1667A3A8846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F5"/>
+  <oleSize ref="A1:F9"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -67,18 +67,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
     <t>numpy@123</t>
   </si>
   <si>
@@ -100,7 +88,19 @@
     <t>xyz not defined on line 1</t>
   </si>
   <si>
-    <t>TC05</t>
+    <t>Missing username and password</t>
+  </si>
+  <si>
+    <t>Missing username</t>
+  </si>
+  <si>
+    <t>Missing password</t>
+  </si>
+  <si>
+    <t>Invalid username</t>
+  </si>
+  <si>
+    <t>Invalid password</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -548,13 +548,13 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -571,13 +571,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77EEB37-5FD3-425D-9E8F-E1A2240FEFF9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
@@ -599,46 +597,46 @@
     </row>
     <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
@@ -646,13 +644,13 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8FDAB3F1-CD35-4096-A744-1667A3A8846D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D10BA509-27E4-4C40-BFA6-8CA013F903FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F9"/>
+  <oleSize ref="A1:E19"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -64,7 +64,19 @@
     <t xml:space="preserve">xyz</t>
   </si>
   <si>
-    <t xml:space="preserve">xyz not defined on line 1</t>
+    <t xml:space="preserve">NameError: name 'xyz' is not defined on line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlphaNumeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SyntaxError: bad input on line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numeric</t>
   </si>
   <si>
     <t xml:space="preserve">username</t>
@@ -343,13 +355,13 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="21.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="38.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,10 +387,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -401,15 +413,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="38.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,6 +445,36 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -463,71 +506,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D10BA509-27E4-4C40-BFA6-8CA013F903FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5967A795-ABE0-44B3-8A35-BE6F95B542F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E19"/>
+  <oleSize ref="A1:E9"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ACE48F89-BC96-4358-BF65-7775C9D275F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{372C5935-EEF8-4FC7-A57E-97C767842431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="3" r:id="rId2"/>
     <sheet name="DataStructure" sheetId="2" r:id="rId3"/>
+    <sheet name="Stack" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K2"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -128,13 +129,19 @@
   </si>
   <si>
     <t>Welcome/123</t>
+  </si>
+  <si>
+    <t>InvalidCode</t>
+  </si>
+  <si>
+    <t>a=b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -177,6 +184,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -250,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -272,6 +284,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2155CF6-E984-4F67-9354-C278C96C8106}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -795,9 +808,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -828,6 +841,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -836,4 +857,46 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13F23F3-1D7E-46C4-9AD1-9453DD6D08F3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -5,13 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DataStructure" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Tree" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Login" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Login" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="DataStructure" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Tree" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Queue" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Stack" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Register" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Linked List" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Array" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Graph" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t xml:space="preserve">TestCaseID</t>
   </si>
@@ -43,6 +49,45 @@
     <t xml:space="preserve">Welcome@01</t>
   </si>
   <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing username and  password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please fill out this field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing username </t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpy@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummyuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid Username and Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid password </t>
+  </si>
+  <si>
     <t xml:space="preserve">Python Code</t>
   </si>
   <si>
@@ -55,9 +100,6 @@
     <t xml:space="preserve">print("hello");</t>
   </si>
   <si>
-    <t xml:space="preserve">hello</t>
-  </si>
-  <si>
     <t xml:space="preserve">InvalidCode</t>
   </si>
   <si>
@@ -79,40 +121,91 @@
     <t xml:space="preserve">Numeric</t>
   </si>
   <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please fill out this field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numpy@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dummyuser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid Username and Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC05</t>
+    <t xml:space="preserve">password confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmptyValues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please fill out this field.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsernameValues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prasanna1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PasswordValues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome!01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoPasswordConfirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MismatchPassword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rahavi@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect@1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_mismatch:The two password fields didn’t match.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ValidCredentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numpy!1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Account Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvalidUsername</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QW!!23 45 QW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Username is not valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PwdNumericValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwerty@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your password can’t be entirely numeric.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print ("World")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InValid Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print (World)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameError: name 'World' is not defined on line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NameError: name 'abc' is not defined on line 1</t>
   </si>
 </sst>
 </file>
@@ -122,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -159,6 +252,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,12 +281,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -205,7 +346,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -218,11 +359,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,7 +434,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF2A00FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
@@ -307,7 +472,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -348,20 +513,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,35 +535,139 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.49"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="numpy@123"/>
+    <hyperlink ref="C5" r:id="rId2" display="numpy@123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -413,16 +683,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,51 +699,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>321</v>
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -493,91 +743,479 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.67"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="numpy@123"/>
-    <hyperlink ref="C5" r:id="rId2" display="numpy@123"/>
-  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{372C5935-EEF8-4FC7-A57E-97C767842431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C35AAB0-5C62-4296-BB0C-40F608D88807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Stack" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K2"/>
+  <oleSize ref="A1:E5"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -646,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2155CF6-E984-4F67-9354-C278C96C8106}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5967A795-ABE0-44B3-8A35-BE6F95B542F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{718F8BD0-AC34-459E-BC90-F302C21B8E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77EEB37-5FD3-425D-9E8F-E1A2240FEFF9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -581,7 +583,7 @@
     <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -603,7 +605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -614,7 +616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -625,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -639,7 +641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>

--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C35AAB0-5C62-4296-BB0C-40F608D88807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FC94008E-CEB5-4E2F-BA45-10351F76D796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Stack" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E5"/>
+  <oleSize ref="A1:N9"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -135,13 +135,19 @@
   </si>
   <si>
     <t>a=b</t>
+  </si>
+  <si>
+    <t>name 'abc' is not defined on line 1</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,6 +195,11 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -285,6 +296,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2155CF6-E984-4F67-9354-C278C96C8106}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -811,7 +823,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -861,17 +873,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13F23F3-1D7E-46C4-9AD1-9453DD6D08F3}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,7 +908,19 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{718F8BD0-AC34-459E-BC90-F302C21B8E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF9756FF-F281-4B85-80F7-BA325962193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="DataStructure" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
+    <sheet name="Graph" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E9"/>
+  <oleSize ref="A1:I9"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -516,7 +517,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -571,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77EEB37-5FD3-425D-9E8F-E1A2240FEFF9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
@@ -662,4 +663,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653FDF10-7838-46F3-854D-81BF49873BD4}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF9756FF-F281-4B85-80F7-BA325962193F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FF1CC529-3B56-4A8B-A343-03E4A03CA329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="DataStructure" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Graph" sheetId="4" r:id="rId4"/>
+    <sheet name="Queue" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:I9"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -669,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653FDF10-7838-46F3-854D-81BF49873BD4}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -716,4 +717,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4265EF8-236C-4374-BFE3-7F09A51A4044}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testdata/TestData1.xlsx
+++ b/src/test/resources/testdata/TestData1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{05565E9B-538C-483E-9393-09FFC097DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{77F88438-3AF9-409F-A498-9EDB793FB9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Default_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Graph" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:D8"/>
+  <oleSize ref="A1:F7"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
